--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2847546.883495866</v>
+        <v>2845211.772293886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>88.95533597119787</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.9456372620864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8064735376934</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866106</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.45885325319731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>172.5994144921089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>338.0394898029491</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428081</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703226</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440906</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3555494301526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.30076123484837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182945</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>922.5193592425337</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>922.5193592425337</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>922.5193592425337</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>511.5334544529262</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4343,16 +4343,16 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744481</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>684.90618255198</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537358</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>292.1724292045323</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7751904765219</v>
+        <v>196.9593607670919</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765219</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X7" t="n">
-        <v>883.567769620052</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.7751904765219</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1942.567517572959</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1573.605000632547</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1573.605000632547</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.167357637081</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797183</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745235</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191922</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349506</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121602</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713837</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908938</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,43 +5729,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,16 +5774,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,13 +6488,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7163,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241567</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883071081</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194625</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>92.12028678808286</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755149.820223428</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.820223428</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380341</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
@@ -26341,7 +26341,7 @@
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
@@ -26350,7 +26350,7 @@
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756626</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675669</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756632</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756581</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756643</v>
-      </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667056.369569833</v>
+        <v>-667056.3695698329</v>
       </c>
       <c r="C6" t="n">
         <v>447695.4140060869</v>
       </c>
       <c r="D6" t="n">
-        <v>288274.1440081945</v>
+        <v>288274.1440081946</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.7527562365</v>
+        <v>229989.0148308004</v>
       </c>
       <c r="F6" t="n">
-        <v>555436.2145635915</v>
+        <v>555401.4766381555</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635908</v>
+        <v>555401.4766381552</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635914</v>
+        <v>555401.4766381562</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635909</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="J6" t="n">
-        <v>387831.0367536086</v>
+        <v>387796.298828173</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635913</v>
+        <v>555401.4766381555</v>
       </c>
       <c r="L6" t="n">
-        <v>507142.2445554006</v>
+        <v>507107.5066299648</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280796</v>
+        <v>470346.4487026436</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635912</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635912</v>
+        <v>555401.4766381556</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635913</v>
+        <v>555401.4766381556</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.584832100039</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26799,16 +26799,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>322.5923668017561</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745046</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>238.7412292352606</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362319</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.7879678454305</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.11024089692825</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>43.89088026931267</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-9.338783567249072e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.953513792444654e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179115</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672726</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,16 +33266,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,10 +34372,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620068</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844301</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394754</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875417</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010417</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507077</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,10 +38020,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
